--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Rating" sheetId="1" r:id="rId1"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rating4(练习题)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rank1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,15 +94,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rank4(练习)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注：排名为报名时间排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,17 +505,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="17.75" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -532,7 +532,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -566,7 +566,7 @@
         <v>1324</v>
       </c>
       <c r="E3" s="4">
-        <v>1428</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -583,7 +583,7 @@
         <v>1256</v>
       </c>
       <c r="E4" s="4">
-        <v>1380</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -600,75 +600,75 @@
         <v>1189</v>
       </c>
       <c r="E5" s="4">
-        <v>1331</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>1065</v>
+        <v>1021</v>
       </c>
       <c r="C6" s="6">
-        <v>1233</v>
+        <v>1117</v>
       </c>
       <c r="D6" s="4">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="E6" s="4">
-        <v>1243</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>1021</v>
+        <v>1161</v>
       </c>
       <c r="C7" s="6">
-        <v>1117</v>
+        <v>1004</v>
       </c>
       <c r="D7" s="4">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E7" s="4">
-        <v>1241</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1161</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1004</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>978</v>
+      </c>
+      <c r="C8" s="4">
+        <v>944</v>
       </c>
       <c r="D8" s="4">
+        <v>998</v>
+      </c>
+      <c r="E8" s="4">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
         <v>1065</v>
       </c>
-      <c r="E8" s="4">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>978</v>
-      </c>
-      <c r="C9" s="4">
-        <v>944</v>
+      <c r="C9" s="6">
+        <v>1233</v>
       </c>
       <c r="D9" s="4">
-        <v>998</v>
+        <v>1080</v>
       </c>
       <c r="E9" s="4">
-        <v>1180</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -685,7 +685,7 @@
         <v>974</v>
       </c>
       <c r="E10" s="4">
-        <v>1161</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -702,7 +702,7 @@
         <v>904</v>
       </c>
       <c r="E11" s="4">
-        <v>1016</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -719,41 +719,41 @@
         <v>809</v>
       </c>
       <c r="E12" s="4">
-        <v>946</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>701</v>
+        <v>888</v>
       </c>
       <c r="C13" s="4">
-        <v>600</v>
+        <v>784</v>
       </c>
       <c r="D13" s="4">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="E13" s="4">
-        <v>831</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>888</v>
+        <v>701</v>
       </c>
       <c r="C14" s="4">
-        <v>784</v>
+        <v>600</v>
       </c>
       <c r="D14" s="4">
-        <v>686</v>
+        <v>648</v>
       </c>
       <c r="E14" s="4">
-        <v>811</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,19 +784,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -830,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -864,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -898,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -932,7 +932,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -949,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -966,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1000,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1017,12 +1017,12 @@
         <v>6</v>
       </c>
       <c r="E14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rating" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>Rating4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,11 +522,11 @@
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="17.75" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="24.875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -534,8 +542,11 @@
       <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +562,11 @@
       <c r="E2" s="4">
         <v>1734</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F2" s="4">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,8 +582,11 @@
       <c r="E3" s="4">
         <v>1360</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F3" s="4">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,8 +602,11 @@
       <c r="E4" s="4">
         <v>1243</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F4" s="4">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,8 +622,11 @@
       <c r="E5" s="4">
         <v>1224</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F5" s="4">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -619,8 +642,11 @@
       <c r="E6" s="4">
         <v>1078</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F6" s="4">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -636,8 +662,11 @@
       <c r="E7" s="4">
         <v>1018</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F7" s="4">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -653,42 +682,51 @@
       <c r="E8" s="4">
         <v>993</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="F8" s="4">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>934</v>
+      </c>
+      <c r="C9" s="4">
+        <v>943</v>
+      </c>
+      <c r="D9" s="4">
+        <v>974</v>
+      </c>
+      <c r="E9" s="4">
+        <v>928</v>
+      </c>
+      <c r="F9" s="4">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5">
         <v>1065</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>1233</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <v>1080</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>960</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>934</v>
-      </c>
-      <c r="C10" s="4">
-        <v>943</v>
-      </c>
-      <c r="D10" s="4">
-        <v>974</v>
-      </c>
-      <c r="E10" s="4">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F10" s="4">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -704,8 +742,11 @@
       <c r="E11" s="4">
         <v>827</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F11" s="4">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -721,8 +762,11 @@
       <c r="E12" s="4">
         <v>701</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F12" s="4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -738,8 +782,11 @@
       <c r="E13" s="4">
         <v>526</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F13" s="4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -755,10 +802,13 @@
       <c r="E14" s="4">
         <v>410</v>
       </c>
+      <c r="F14" s="4">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E14">
-    <sortCondition descending="1" ref="E2"/>
+  <sortState ref="A2:F14">
+    <sortCondition descending="1" ref="F2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -768,10 +818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -782,7 +832,7 @@
     <col min="4" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -798,8 +848,11 @@
       <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,8 +868,11 @@
       <c r="E2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -832,8 +888,11 @@
       <c r="E3" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -849,8 +908,11 @@
       <c r="E4" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -866,8 +928,11 @@
       <c r="E5" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -883,8 +948,11 @@
       <c r="E6" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -900,8 +968,11 @@
       <c r="E7" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -917,8 +988,11 @@
       <c r="E8" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -934,8 +1008,11 @@
       <c r="E9" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -951,8 +1028,11 @@
       <c r="E10" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -968,8 +1048,11 @@
       <c r="E11" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -985,8 +1068,11 @@
       <c r="E12" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1002,8 +1088,11 @@
       <c r="E13" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1017,6 +1106,9 @@
         <v>6</v>
       </c>
       <c r="E14" s="7">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7">
         <v>6</v>
       </c>
     </row>

--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Rating" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>Rank5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,7 +534,7 @@
     <col min="5" max="5" width="18.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -545,8 +553,11 @@
       <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,8 +576,11 @@
       <c r="F2" s="4">
         <v>1774</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="4">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,128 +599,149 @@
       <c r="F3" s="4">
         <v>1339</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="4">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1111</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1144</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1189</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1224</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1266</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="5">
         <v>1220</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C5" s="6">
         <v>1192</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="4">
         <v>1256</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="4">
         <v>1243</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="4">
         <v>1315</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="G5" s="4">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1161</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1065</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1018</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1057</v>
+      </c>
+      <c r="G6" s="4">
         <v>1111</v>
       </c>
-      <c r="C5" s="6">
-        <v>1144</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1189</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1224</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5">
         <v>1021</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>1117</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>1071</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>1078</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>1059</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1161</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1004</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1065</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1018</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G7" s="4">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>934</v>
+      </c>
+      <c r="C8" s="4">
+        <v>943</v>
+      </c>
+      <c r="D8" s="4">
+        <v>974</v>
+      </c>
+      <c r="E8" s="4">
+        <v>928</v>
+      </c>
+      <c r="F8" s="4">
+        <v>922</v>
+      </c>
+      <c r="G8" s="4">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>978</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>944</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>998</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>993</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>1016</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>934</v>
-      </c>
-      <c r="C9" s="4">
-        <v>943</v>
-      </c>
-      <c r="D9" s="4">
-        <v>974</v>
-      </c>
-      <c r="E9" s="4">
-        <v>928</v>
-      </c>
-      <c r="F9" s="4">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G9" s="4">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -725,8 +760,11 @@
       <c r="F10" s="4">
         <v>871</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G10" s="4">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -745,8 +783,11 @@
       <c r="F11" s="4">
         <v>825</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G11" s="4">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -765,50 +806,59 @@
       <c r="F12" s="4">
         <v>703</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G12" s="4">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>701</v>
+      </c>
+      <c r="C13" s="4">
+        <v>600</v>
+      </c>
+      <c r="D13" s="4">
+        <v>648</v>
+      </c>
+      <c r="E13" s="4">
+        <v>410</v>
+      </c>
+      <c r="F13" s="4">
+        <v>346</v>
+      </c>
+      <c r="G13" s="4">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>888</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>784</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>686</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>526</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>502</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>701</v>
-      </c>
-      <c r="C14" s="4">
-        <v>600</v>
-      </c>
-      <c r="D14" s="4">
-        <v>648</v>
-      </c>
-      <c r="E14" s="4">
-        <v>410</v>
-      </c>
-      <c r="F14" s="4">
-        <v>346</v>
+      <c r="G14" s="4">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F14">
-    <sortCondition descending="1" ref="F2"/>
+  <sortState ref="A2:G14">
+    <sortCondition descending="1" ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -818,10 +868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -832,7 +882,7 @@
     <col min="4" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -851,8 +901,11 @@
       <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,8 +924,11 @@
       <c r="F2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -891,8 +947,11 @@
       <c r="F3" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -911,8 +970,11 @@
       <c r="F4" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -931,8 +993,11 @@
       <c r="F5" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -951,8 +1016,11 @@
       <c r="F6" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -971,8 +1039,11 @@
       <c r="F7" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1062,11 @@
       <c r="F8" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1085,11 @@
       <c r="F9" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1031,8 +1108,11 @@
       <c r="F10" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1051,8 +1131,11 @@
       <c r="F11" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1071,8 +1154,11 @@
       <c r="F12" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1091,8 +1177,11 @@
       <c r="F13" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1110,6 +1199,9 @@
       </c>
       <c r="F14" s="7">
         <v>6</v>
+      </c>
+      <c r="G14" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">

--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rating" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>Rank6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,9 +540,10 @@
     <col min="3" max="3" width="18.625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -556,8 +565,11 @@
       <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +591,11 @@
       <c r="G2" s="4">
         <v>1738</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H2" s="4">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,8 +617,11 @@
       <c r="G3" s="4">
         <v>1449</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H3" s="4">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -625,8 +643,11 @@
       <c r="G4" s="4">
         <v>1296</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H4" s="4">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -648,8 +669,11 @@
       <c r="G5" s="4">
         <v>1194</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H5" s="4">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -671,77 +695,89 @@
       <c r="G6" s="4">
         <v>1111</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H6" s="4">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>934</v>
+      </c>
+      <c r="C7" s="4">
+        <v>943</v>
+      </c>
+      <c r="D7" s="4">
+        <v>974</v>
+      </c>
+      <c r="E7" s="4">
+        <v>928</v>
+      </c>
+      <c r="F7" s="4">
+        <v>922</v>
+      </c>
+      <c r="G7" s="4">
+        <v>941</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>978</v>
+      </c>
+      <c r="C8" s="4">
+        <v>944</v>
+      </c>
+      <c r="D8" s="4">
+        <v>998</v>
+      </c>
+      <c r="E8" s="4">
+        <v>993</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1016</v>
+      </c>
+      <c r="G8" s="4">
+        <v>916</v>
+      </c>
+      <c r="H8" s="4">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B9" s="5">
         <v>1021</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C9" s="6">
         <v>1117</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D9" s="4">
         <v>1071</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E9" s="4">
         <v>1078</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F9" s="4">
         <v>1059</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G9" s="4">
         <v>1067</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>934</v>
-      </c>
-      <c r="C8" s="4">
-        <v>943</v>
-      </c>
-      <c r="D8" s="4">
-        <v>974</v>
-      </c>
-      <c r="E8" s="4">
-        <v>928</v>
-      </c>
-      <c r="F8" s="4">
-        <v>922</v>
-      </c>
-      <c r="G8" s="4">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>978</v>
-      </c>
-      <c r="C9" s="4">
-        <v>944</v>
-      </c>
-      <c r="D9" s="4">
-        <v>998</v>
-      </c>
-      <c r="E9" s="4">
-        <v>993</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1016</v>
-      </c>
-      <c r="G9" s="4">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H9" s="4">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -763,8 +799,11 @@
       <c r="G10" s="4">
         <v>877</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H10" s="4">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -786,8 +825,11 @@
       <c r="G11" s="4">
         <v>798</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H11" s="4">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -809,56 +851,65 @@
       <c r="G12" s="4">
         <v>581</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H12" s="4">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>888</v>
+      </c>
+      <c r="C13" s="4">
+        <v>784</v>
+      </c>
+      <c r="D13" s="4">
+        <v>686</v>
+      </c>
+      <c r="E13" s="4">
+        <v>526</v>
+      </c>
+      <c r="F13" s="4">
+        <v>502</v>
+      </c>
+      <c r="G13" s="4">
+        <v>486</v>
+      </c>
+      <c r="H13" s="4">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>701</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>600</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>648</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>410</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>346</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>532</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2">
-        <v>888</v>
-      </c>
-      <c r="C14" s="4">
-        <v>784</v>
-      </c>
-      <c r="D14" s="4">
-        <v>686</v>
-      </c>
-      <c r="E14" s="4">
-        <v>526</v>
-      </c>
-      <c r="F14" s="4">
-        <v>502</v>
-      </c>
-      <c r="G14" s="4">
-        <v>486</v>
+      <c r="H14" s="4">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G14">
-    <sortCondition descending="1" ref="G2"/>
+  <sortState ref="A2:H14">
+    <sortCondition descending="1" ref="H2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -868,10 +919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,7 +933,7 @@
     <col min="4" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -904,8 +955,11 @@
       <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,8 +981,11 @@
       <c r="G2" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -950,8 +1007,11 @@
       <c r="G3" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -973,8 +1033,11 @@
       <c r="G4" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1059,11 @@
       <c r="G5" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1019,8 +1085,11 @@
       <c r="G6" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1042,8 +1111,11 @@
       <c r="G7" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1065,8 +1137,11 @@
       <c r="G8" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1088,8 +1163,11 @@
       <c r="G9" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1111,8 +1189,11 @@
       <c r="G10" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1215,11 @@
       <c r="G11" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1157,8 +1241,11 @@
       <c r="G12" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1180,8 +1267,11 @@
       <c r="G13" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1202,6 +1292,9 @@
       </c>
       <c r="G14" s="7">
         <v>11</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">

--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>Rank7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,10 +548,10 @@
     <col min="3" max="3" width="18.625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -568,8 +576,11 @@
       <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,8 +605,11 @@
       <c r="H2" s="4">
         <v>1667</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I2" s="4">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,8 +634,11 @@
       <c r="H3" s="4">
         <v>1545</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I3" s="4">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,8 +663,11 @@
       <c r="H4" s="4">
         <v>1352</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I4" s="4">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -672,8 +692,11 @@
       <c r="H5" s="4">
         <v>1130</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I5" s="4">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -698,60 +721,69 @@
       <c r="H6" s="4">
         <v>1104</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I6" s="4">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>978</v>
+      </c>
+      <c r="C7" s="4">
+        <v>944</v>
+      </c>
+      <c r="D7" s="4">
+        <v>998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>993</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1016</v>
+      </c>
+      <c r="G7" s="4">
+        <v>916</v>
+      </c>
+      <c r="H7" s="4">
+        <v>974</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>934</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <v>943</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <v>974</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>928</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>922</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <v>941</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="4">
         <v>1017</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>978</v>
-      </c>
-      <c r="C8" s="4">
-        <v>944</v>
-      </c>
-      <c r="D8" s="4">
-        <v>998</v>
-      </c>
-      <c r="E8" s="4">
-        <v>993</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1016</v>
-      </c>
-      <c r="G8" s="4">
-        <v>916</v>
-      </c>
-      <c r="H8" s="4">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I8" s="4">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -776,60 +808,69 @@
       <c r="H9" s="4">
         <v>959</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I9" s="4">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>838</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1033</v>
+      </c>
+      <c r="D10" s="4">
+        <v>904</v>
+      </c>
+      <c r="E10" s="4">
+        <v>827</v>
+      </c>
+      <c r="F10" s="4">
+        <v>825</v>
+      </c>
+      <c r="G10" s="4">
+        <v>798</v>
+      </c>
+      <c r="H10" s="4">
+        <v>843</v>
+      </c>
+      <c r="I10" s="4">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>1065</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1233</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>1080</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>960</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>871</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>877</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>861</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>838</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1033</v>
-      </c>
-      <c r="D11" s="4">
-        <v>904</v>
-      </c>
-      <c r="E11" s="4">
-        <v>827</v>
-      </c>
-      <c r="F11" s="4">
-        <v>825</v>
-      </c>
-      <c r="G11" s="4">
-        <v>798</v>
-      </c>
-      <c r="H11" s="4">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I11" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -854,62 +895,71 @@
       <c r="H12" s="4">
         <v>603</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I12" s="4">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>701</v>
+      </c>
+      <c r="C13" s="4">
+        <v>600</v>
+      </c>
+      <c r="D13" s="4">
+        <v>648</v>
+      </c>
+      <c r="E13" s="4">
+        <v>410</v>
+      </c>
+      <c r="F13" s="4">
+        <v>346</v>
+      </c>
+      <c r="G13" s="4">
+        <v>532</v>
+      </c>
+      <c r="H13" s="4">
+        <v>431</v>
+      </c>
+      <c r="I13" s="4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>888</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>784</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>686</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>526</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>502</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>486</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="4">
         <v>476</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>701</v>
-      </c>
-      <c r="C14" s="4">
-        <v>600</v>
-      </c>
-      <c r="D14" s="4">
-        <v>648</v>
-      </c>
-      <c r="E14" s="4">
-        <v>410</v>
-      </c>
-      <c r="F14" s="4">
-        <v>346</v>
-      </c>
-      <c r="G14" s="4">
-        <v>532</v>
-      </c>
-      <c r="H14" s="4">
-        <v>431</v>
+      <c r="I14" s="4">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H14">
-    <sortCondition descending="1" ref="H2"/>
+  <sortState ref="A2:I14">
+    <sortCondition descending="1" ref="I2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -919,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -933,7 +983,7 @@
     <col min="4" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -958,8 +1008,11 @@
       <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -984,8 +1037,11 @@
       <c r="H2" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1010,8 +1066,11 @@
       <c r="H3" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1036,8 +1095,11 @@
       <c r="H4" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1062,8 +1124,11 @@
       <c r="H5" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1088,8 +1153,11 @@
       <c r="H6" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1114,8 +1182,11 @@
       <c r="H7" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1140,8 +1211,11 @@
       <c r="H8" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1166,8 +1240,11 @@
       <c r="H9" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1192,8 +1269,11 @@
       <c r="H10" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1218,8 +1298,11 @@
       <c r="H11" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1244,8 +1327,11 @@
       <c r="H12" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1270,8 +1356,11 @@
       <c r="H13" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1294,6 +1383,9 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
         <v>5</v>
       </c>
     </row>

--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Rating" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>Rank8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,10 +556,10 @@
     <col min="3" max="3" width="18.625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -579,8 +587,11 @@
       <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,8 +619,11 @@
       <c r="I2" s="4">
         <v>1719</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J2" s="4">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -637,8 +651,11 @@
       <c r="I3" s="4">
         <v>1520</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J3" s="4">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -666,8 +683,11 @@
       <c r="I4" s="4">
         <v>1401</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J4" s="4">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -695,8 +715,11 @@
       <c r="I5" s="4">
         <v>1162</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J5" s="4">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,66 +747,75 @@
       <c r="I6" s="4">
         <v>1098</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J6" s="4">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>934</v>
+      </c>
+      <c r="C7" s="4">
+        <v>943</v>
+      </c>
+      <c r="D7" s="4">
+        <v>974</v>
+      </c>
+      <c r="E7" s="4">
+        <v>928</v>
+      </c>
+      <c r="F7" s="4">
+        <v>922</v>
+      </c>
+      <c r="G7" s="4">
+        <v>941</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1017</v>
+      </c>
+      <c r="I7" s="4">
+        <v>991</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>978</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <v>944</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <v>998</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>993</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>1016</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <v>916</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="4">
         <v>974</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <v>1018</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>934</v>
-      </c>
-      <c r="C8" s="4">
-        <v>943</v>
-      </c>
-      <c r="D8" s="4">
-        <v>974</v>
-      </c>
-      <c r="E8" s="4">
-        <v>928</v>
-      </c>
-      <c r="F8" s="4">
-        <v>922</v>
-      </c>
-      <c r="G8" s="4">
-        <v>941</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1017</v>
-      </c>
-      <c r="I8" s="4">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J8" s="4">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -811,8 +843,11 @@
       <c r="I9" s="4">
         <v>965</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J9" s="4">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -840,8 +875,11 @@
       <c r="I10" s="4">
         <v>834</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J10" s="4">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -869,8 +907,11 @@
       <c r="I11" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J11" s="4">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -898,8 +939,11 @@
       <c r="I12" s="4">
         <v>621</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J12" s="4">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -927,8 +971,11 @@
       <c r="I13" s="4">
         <v>417</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J13" s="4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -956,10 +1003,13 @@
       <c r="I14" s="4">
         <v>408</v>
       </c>
+      <c r="J14" s="4">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I14">
-    <sortCondition descending="1" ref="I2"/>
+  <sortState ref="A2:J14">
+    <sortCondition descending="1" ref="J2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="H2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,7 +1033,7 @@
     <col min="4" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1011,8 +1061,11 @@
       <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +1093,11 @@
       <c r="I2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1069,8 +1125,11 @@
       <c r="I3" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1098,8 +1157,11 @@
       <c r="I4" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1127,8 +1189,11 @@
       <c r="I5" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1221,11 @@
       <c r="I6" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1185,8 +1253,11 @@
       <c r="I7" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1214,8 +1285,11 @@
       <c r="I8" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1243,8 +1317,11 @@
       <c r="I9" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1272,8 +1349,11 @@
       <c r="I10" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1301,8 +1381,11 @@
       <c r="I11" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1330,8 +1413,11 @@
       <c r="I12" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1359,8 +1445,11 @@
       <c r="I13" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1387,6 +1476,9 @@
       </c>
       <c r="I14" s="7">
         <v>5</v>
+      </c>
+      <c r="J14" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">

--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>Rank9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,10 +564,10 @@
     <col min="3" max="3" width="18.625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -590,8 +598,11 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,8 +633,11 @@
       <c r="J2" s="4">
         <v>1761</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K2" s="4">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -654,8 +668,11 @@
       <c r="J3" s="4">
         <v>1371</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K3" s="4">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -686,8 +703,11 @@
       <c r="J4" s="4">
         <v>1356</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K4" s="4">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,8 +738,11 @@
       <c r="J5" s="4">
         <v>1250</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K5" s="4">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,104 +773,116 @@
       <c r="J6" s="4">
         <v>1138</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K6" s="4">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>978</v>
+      </c>
+      <c r="C7" s="4">
+        <v>944</v>
+      </c>
+      <c r="D7" s="4">
+        <v>998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>993</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1016</v>
+      </c>
+      <c r="G7" s="4">
+        <v>916</v>
+      </c>
+      <c r="H7" s="4">
+        <v>974</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1018</v>
+      </c>
+      <c r="J7" s="4">
+        <v>992</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1021</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1117</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1071</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1078</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1059</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1067</v>
+      </c>
+      <c r="H8" s="4">
+        <v>959</v>
+      </c>
+      <c r="I8" s="4">
+        <v>965</v>
+      </c>
+      <c r="J8" s="4">
+        <v>906</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>934</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C9" s="4">
         <v>943</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D9" s="4">
         <v>974</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E9" s="4">
         <v>928</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F9" s="4">
         <v>922</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G9" s="4">
         <v>941</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H9" s="4">
         <v>1017</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I9" s="4">
         <v>991</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J9" s="4">
         <v>1080</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>978</v>
-      </c>
-      <c r="C8" s="4">
-        <v>944</v>
-      </c>
-      <c r="D8" s="4">
-        <v>998</v>
-      </c>
-      <c r="E8" s="4">
-        <v>993</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1016</v>
-      </c>
-      <c r="G8" s="4">
-        <v>916</v>
-      </c>
-      <c r="H8" s="4">
-        <v>974</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1018</v>
-      </c>
-      <c r="J8" s="4">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1021</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1117</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1071</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1078</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1059</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1067</v>
-      </c>
-      <c r="H9" s="4">
-        <v>959</v>
-      </c>
-      <c r="I9" s="4">
-        <v>965</v>
-      </c>
-      <c r="J9" s="4">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K9" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -878,8 +913,11 @@
       <c r="J10" s="4">
         <v>866</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K10" s="4">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -910,8 +948,11 @@
       <c r="J11" s="4">
         <v>855</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K11" s="4">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -942,8 +983,11 @@
       <c r="J12" s="4">
         <v>573</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K12" s="4">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -974,8 +1018,11 @@
       <c r="J13" s="4">
         <v>452</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K13" s="4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1006,10 +1053,13 @@
       <c r="J14" s="4">
         <v>347</v>
       </c>
+      <c r="K14" s="4">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J14">
-    <sortCondition descending="1" ref="J2"/>
+  <sortState ref="A2:K14">
+    <sortCondition descending="1" ref="K2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1019,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="H2:J14"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1033,7 +1083,7 @@
     <col min="4" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1064,8 +1114,11 @@
       <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1096,8 +1149,11 @@
       <c r="J2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1128,8 +1184,11 @@
       <c r="J3" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1160,8 +1219,11 @@
       <c r="J4" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1192,8 +1254,11 @@
       <c r="J5" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1289,11 @@
       <c r="J6" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1256,8 +1324,11 @@
       <c r="J7" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1288,8 +1359,11 @@
       <c r="J8" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1320,8 +1394,11 @@
       <c r="J9" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1352,8 +1429,11 @@
       <c r="J10" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1384,8 +1464,11 @@
       <c r="J11" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1416,8 +1499,11 @@
       <c r="J12" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1448,8 +1534,11 @@
       <c r="J13" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1479,6 +1568,9 @@
       </c>
       <c r="J14" s="7">
         <v>8</v>
+      </c>
+      <c r="K14" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">

--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Rating" sheetId="1" r:id="rId1"/>
     <sheet name="Rank" sheetId="2" r:id="rId2"/>
+    <sheet name="Practice" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -155,6 +156,34 @@
   </si>
   <si>
     <t>Rank10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分增值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +221,22 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -243,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +315,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,7 +624,7 @@
     <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -601,8 +658,11 @@
       <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +696,11 @@
       <c r="K2" s="4">
         <v>1791</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L2" s="4">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,8 +734,11 @@
       <c r="K3" s="4">
         <v>1424</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L3" s="4">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,8 +772,11 @@
       <c r="K4" s="4">
         <v>1259</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L4" s="4">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,78 +810,87 @@
       <c r="K5" s="4">
         <v>1240</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L5" s="4">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>978</v>
+      </c>
+      <c r="C6" s="4">
+        <v>944</v>
+      </c>
+      <c r="D6" s="4">
+        <v>998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>993</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1016</v>
+      </c>
+      <c r="G6" s="4">
+        <v>916</v>
+      </c>
+      <c r="H6" s="4">
+        <v>974</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1018</v>
+      </c>
+      <c r="J6" s="4">
+        <v>992</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1013</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5">
         <v>1161</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>1004</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>1065</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>1018</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>1057</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
         <v>1111</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>1104</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>1098</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="4">
         <v>1138</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="4">
         <v>1108</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>978</v>
-      </c>
-      <c r="C7" s="4">
-        <v>944</v>
-      </c>
-      <c r="D7" s="4">
-        <v>998</v>
-      </c>
-      <c r="E7" s="4">
-        <v>993</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1016</v>
-      </c>
-      <c r="G7" s="4">
-        <v>916</v>
-      </c>
-      <c r="H7" s="4">
-        <v>974</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1018</v>
-      </c>
-      <c r="J7" s="4">
-        <v>992</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L7" s="4">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +924,11 @@
       <c r="K8" s="4">
         <v>1012</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L8" s="4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -881,8 +962,11 @@
       <c r="K9" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L9" s="4">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -916,8 +1000,11 @@
       <c r="K10" s="4">
         <v>952</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L10" s="4">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -951,78 +1038,87 @@
       <c r="K11" s="4">
         <v>841</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L11" s="4">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
+        <v>701</v>
+      </c>
+      <c r="C12" s="4">
+        <v>600</v>
+      </c>
+      <c r="D12" s="4">
+        <v>648</v>
+      </c>
+      <c r="E12" s="4">
+        <v>410</v>
+      </c>
+      <c r="F12" s="4">
+        <v>346</v>
+      </c>
+      <c r="G12" s="4">
+        <v>532</v>
+      </c>
+      <c r="H12" s="4">
+        <v>431</v>
+      </c>
+      <c r="I12" s="4">
+        <v>417</v>
+      </c>
+      <c r="J12" s="4">
+        <v>452</v>
+      </c>
+      <c r="K12" s="4">
+        <v>442</v>
+      </c>
+      <c r="L12" s="4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
         <v>779</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>778</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>809</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>701</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>703</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>581</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>603</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>621</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="4">
         <v>573</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="4">
         <v>476</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>701</v>
-      </c>
-      <c r="C13" s="4">
-        <v>600</v>
-      </c>
-      <c r="D13" s="4">
-        <v>648</v>
-      </c>
-      <c r="E13" s="4">
-        <v>410</v>
-      </c>
-      <c r="F13" s="4">
-        <v>346</v>
-      </c>
-      <c r="G13" s="4">
-        <v>532</v>
-      </c>
-      <c r="H13" s="4">
-        <v>431</v>
-      </c>
-      <c r="I13" s="4">
-        <v>417</v>
-      </c>
-      <c r="J13" s="4">
-        <v>452</v>
-      </c>
-      <c r="K13" s="4">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L13" s="4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1056,10 +1152,13 @@
       <c r="K14" s="4">
         <v>393</v>
       </c>
+      <c r="L14" s="4">
+        <v>337</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K14">
-    <sortCondition descending="1" ref="K2"/>
+  <sortState ref="A2:L14">
+    <sortCondition descending="1" ref="L2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1083,7 +1182,7 @@
     <col min="4" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1117,8 +1216,11 @@
       <c r="K1" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1152,8 +1254,11 @@
       <c r="K2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1187,8 +1292,11 @@
       <c r="K3" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1222,8 +1330,11 @@
       <c r="K4" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1257,8 +1368,11 @@
       <c r="K5" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1292,8 +1406,11 @@
       <c r="K6" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1327,8 +1444,11 @@
       <c r="K7" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1362,8 +1482,11 @@
       <c r="K8" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1397,8 +1520,11 @@
       <c r="K9" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1432,8 +1558,11 @@
       <c r="K10" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1467,8 +1596,11 @@
       <c r="K11" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1502,8 +1634,11 @@
       <c r="K12" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1537,8 +1672,11 @@
       <c r="K13" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1571,6 +1709,9 @@
       </c>
       <c r="K14" s="7">
         <v>6</v>
+      </c>
+      <c r="L14" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -1582,4 +1723,331 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11">
+        <f t="shared" ref="E2:E14" si="0">SUM(B2:D2)</f>
+        <v>33</v>
+      </c>
+      <c r="F2" s="12">
+        <f>E2*2</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F14" si="1">E3*2</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>12</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\明阳\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\workspace\myACM\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rating" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>Rating11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -282,13 +294,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +349,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -624,7 +650,7 @@
     <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -661,8 +687,11 @@
       <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,84 +728,93 @@
       <c r="L2" s="4">
         <v>1815</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M2" s="4">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1111</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1144</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1189</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1224</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1266</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1296</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1352</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1401</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1356</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1259</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1332</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="5">
         <v>1298</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="6">
         <v>1221</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="4">
         <v>1324</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="4">
         <v>1360</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="4">
         <v>1339</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4" s="4">
         <v>1449</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="4">
         <v>1545</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I4" s="4">
         <v>1520</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J4" s="4">
         <v>1371</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K4" s="4">
         <v>1424</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L4" s="4">
         <v>1379</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1111</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1144</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1189</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1224</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1266</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1296</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1352</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1401</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1356</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1259</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M4" s="4">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -813,84 +851,93 @@
       <c r="L5" s="4">
         <v>1250</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M5" s="4">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1161</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1065</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1018</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1057</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1111</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1104</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1098</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1138</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1108</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1086</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>978</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>944</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>998</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>993</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>1016</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
         <v>916</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>974</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>1018</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="4">
         <v>992</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="4">
         <v>1013</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L7" s="4">
         <v>1098</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1161</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1004</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1065</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1018</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1057</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1111</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1104</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1098</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1138</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1108</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M7" s="4">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +974,11 @@
       <c r="L8" s="4">
         <v>1028</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M8" s="4">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -965,8 +1015,11 @@
       <c r="L9" s="4">
         <v>979</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M9" s="4">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1003,8 +1056,11 @@
       <c r="L10" s="4">
         <v>921</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M10" s="4">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1041,84 +1097,93 @@
       <c r="L11" s="4">
         <v>809</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M11" s="4">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
+        <v>779</v>
+      </c>
+      <c r="C12" s="4">
+        <v>778</v>
+      </c>
+      <c r="D12" s="4">
+        <v>809</v>
+      </c>
+      <c r="E12" s="4">
         <v>701</v>
       </c>
-      <c r="C12" s="4">
+      <c r="F12" s="4">
+        <v>703</v>
+      </c>
+      <c r="G12" s="4">
+        <v>581</v>
+      </c>
+      <c r="H12" s="4">
+        <v>603</v>
+      </c>
+      <c r="I12" s="4">
+        <v>621</v>
+      </c>
+      <c r="J12" s="4">
+        <v>573</v>
+      </c>
+      <c r="K12" s="4">
+        <v>476</v>
+      </c>
+      <c r="L12" s="4">
+        <v>454</v>
+      </c>
+      <c r="M12" s="4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>701</v>
+      </c>
+      <c r="C13" s="4">
         <v>600</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>648</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>410</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>346</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>532</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>431</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>417</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="4">
         <v>452</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="4">
         <v>442</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L13" s="4">
         <v>464</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>779</v>
-      </c>
-      <c r="C13" s="4">
-        <v>778</v>
-      </c>
-      <c r="D13" s="4">
-        <v>809</v>
-      </c>
-      <c r="E13" s="4">
-        <v>701</v>
-      </c>
-      <c r="F13" s="4">
-        <v>703</v>
-      </c>
-      <c r="G13" s="4">
-        <v>581</v>
-      </c>
-      <c r="H13" s="4">
-        <v>603</v>
-      </c>
-      <c r="I13" s="4">
-        <v>621</v>
-      </c>
-      <c r="J13" s="4">
-        <v>573</v>
-      </c>
-      <c r="K13" s="4">
-        <v>476</v>
-      </c>
-      <c r="L13" s="4">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M13" s="4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1155,10 +1220,13 @@
       <c r="L14" s="4">
         <v>337</v>
       </c>
+      <c r="M14" s="4">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L14">
-    <sortCondition descending="1" ref="L2"/>
+  <sortState ref="A2:M14">
+    <sortCondition descending="1" ref="M14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1168,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1182,7 +1250,7 @@
     <col min="4" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1219,8 +1287,11 @@
       <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1257,8 +1328,11 @@
       <c r="L2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1295,8 +1369,11 @@
       <c r="L3" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1333,8 +1410,11 @@
       <c r="L4" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1371,8 +1451,11 @@
       <c r="L5" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1409,8 +1492,11 @@
       <c r="L6" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1447,8 +1533,11 @@
       <c r="L7" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1485,8 +1574,11 @@
       <c r="L8" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1523,8 +1615,11 @@
       <c r="L9" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1561,8 +1656,11 @@
       <c r="L10" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1599,8 +1697,11 @@
       <c r="L11" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1637,8 +1738,11 @@
       <c r="L12" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1675,8 +1779,11 @@
       <c r="L13" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1712,6 +1819,9 @@
       </c>
       <c r="L14" s="7">
         <v>3</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -1727,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1739,7 +1849,7 @@
     <col min="2" max="2" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
@@ -1753,13 +1863,16 @@
         <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1772,16 +1885,17 @@
       <c r="D2" s="10">
         <v>12</v>
       </c>
-      <c r="E2" s="11">
-        <f t="shared" ref="E2:E14" si="0">SUM(B2:D2)</f>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11">
+        <f>SUM(B2:D2)</f>
         <v>33</v>
       </c>
-      <c r="F2" s="12">
-        <f>E2*2</f>
+      <c r="G2" s="12">
+        <f>F2*2</f>
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1794,16 +1908,17 @@
       <c r="D3" s="10">
         <v>12</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" si="0"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11">
+        <f>SUM(B3:D3)</f>
         <v>33</v>
       </c>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:F14" si="1">E3*2</f>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G14" si="0">F3*2</f>
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1816,16 +1931,17 @@
       <c r="D4" s="10">
         <v>12</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11">
+        <f>SUM(B4:D4)</f>
+        <v>33</v>
+      </c>
+      <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1838,16 +1954,17 @@
       <c r="D5" s="7">
         <v>12</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7"/>
+      <c r="F5" s="11">
+        <f>SUM(B5:D5)</f>
+        <v>33</v>
+      </c>
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1860,16 +1977,17 @@
       <c r="D6" s="7">
         <v>12</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7"/>
+      <c r="F6" s="11">
+        <f>SUM(B6:D6)</f>
+        <v>33</v>
+      </c>
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1882,16 +2000,17 @@
       <c r="D7" s="7">
         <v>12</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7"/>
+      <c r="F7" s="11">
+        <f>SUM(B7:D7)</f>
+        <v>33</v>
+      </c>
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1904,16 +2023,17 @@
       <c r="D8" s="7">
         <v>12</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7"/>
+      <c r="F8" s="11">
+        <f>SUM(B8:D8)</f>
+        <v>33</v>
+      </c>
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1926,16 +2046,17 @@
       <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7"/>
+      <c r="F9" s="11">
+        <f>SUM(B9:D9)</f>
+        <v>12</v>
+      </c>
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1948,16 +2069,20 @@
       <c r="D10" s="7">
         <v>10</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
+        <f>SUM(B10:E10)</f>
+        <v>35</v>
+      </c>
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1970,16 +2095,17 @@
       <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7"/>
+      <c r="F11" s="11">
+        <f>SUM(B11:D11)</f>
+        <v>18</v>
+      </c>
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1992,16 +2118,17 @@
       <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7"/>
+      <c r="F12" s="11">
+        <f>SUM(B12:D12)</f>
+        <v>23</v>
+      </c>
+      <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2014,16 +2141,17 @@
       <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7"/>
+      <c r="F13" s="11">
+        <f>SUM(B13:D13)</f>
+        <v>14</v>
+      </c>
+      <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2036,12 +2164,13 @@
       <c r="D14" s="7">
         <v>12</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7"/>
+      <c r="F14" s="11">
+        <f>SUM(B14:D14)</f>
+        <v>33</v>
+      </c>
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>

--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Rating" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -647,51 +651,56 @@
     <col min="3" max="3" width="18.625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,8 +740,11 @@
       <c r="M2" s="4">
         <v>1833</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N2" s="4">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +784,11 @@
       <c r="M3" s="4">
         <v>1386</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N3" s="4">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -813,8 +828,11 @@
       <c r="M4" s="4">
         <v>1240</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N4" s="4">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -854,90 +872,99 @@
       <c r="M5" s="4">
         <v>1223</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N5" s="4">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>978</v>
+      </c>
+      <c r="C6" s="4">
+        <v>944</v>
+      </c>
+      <c r="D6" s="4">
+        <v>998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>993</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1016</v>
+      </c>
+      <c r="G6" s="4">
+        <v>916</v>
+      </c>
+      <c r="H6" s="4">
+        <v>974</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1018</v>
+      </c>
+      <c r="J6" s="4">
+        <v>992</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1013</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1098</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1141</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5">
         <v>1161</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>1004</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>1065</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>1018</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>1057</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
         <v>1111</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>1104</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>1098</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="4">
         <v>1138</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="4">
         <v>1108</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L7" s="4">
         <v>1086</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="4">
         <v>1157</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>978</v>
-      </c>
-      <c r="C7" s="4">
-        <v>944</v>
-      </c>
-      <c r="D7" s="4">
-        <v>998</v>
-      </c>
-      <c r="E7" s="4">
-        <v>993</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1016</v>
-      </c>
-      <c r="G7" s="4">
-        <v>916</v>
-      </c>
-      <c r="H7" s="4">
-        <v>974</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1018</v>
-      </c>
-      <c r="J7" s="4">
-        <v>992</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1013</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1098</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N7" s="4">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1004,11 @@
       <c r="M8" s="4">
         <v>1062</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N8" s="4">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1018,90 +1048,99 @@
       <c r="M9" s="4">
         <v>983</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N9" s="4">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5">
+        <v>1065</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1233</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1080</v>
+      </c>
+      <c r="E10" s="4">
+        <v>960</v>
+      </c>
+      <c r="F10" s="4">
+        <v>871</v>
+      </c>
+      <c r="G10" s="4">
+        <v>877</v>
+      </c>
+      <c r="H10" s="4">
+        <v>861</v>
+      </c>
+      <c r="I10" s="4">
+        <v>800</v>
+      </c>
+      <c r="J10" s="4">
+        <v>855</v>
+      </c>
+      <c r="K10" s="4">
+        <v>841</v>
+      </c>
+      <c r="L10" s="4">
+        <v>809</v>
+      </c>
+      <c r="M10" s="4">
+        <v>825</v>
+      </c>
+      <c r="N10" s="4">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
         <v>838</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1033</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>904</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>827</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>825</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>798</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>843</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>834</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="4">
         <v>866</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="4">
         <v>952</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="4">
         <v>921</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M11" s="4">
         <v>895</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1065</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1233</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1080</v>
-      </c>
-      <c r="E11" s="4">
-        <v>960</v>
-      </c>
-      <c r="F11" s="4">
-        <v>871</v>
-      </c>
-      <c r="G11" s="4">
-        <v>877</v>
-      </c>
-      <c r="H11" s="4">
-        <v>861</v>
-      </c>
-      <c r="I11" s="4">
-        <v>800</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="N11" s="4">
         <v>855</v>
       </c>
-      <c r="K11" s="4">
-        <v>841</v>
-      </c>
-      <c r="L11" s="4">
-        <v>809</v>
-      </c>
-      <c r="M11" s="4">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1141,8 +1180,11 @@
       <c r="M12" s="4">
         <v>475</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N12" s="4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1182,8 +1224,11 @@
       <c r="M13" s="4">
         <v>449</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N13" s="4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1223,10 +1268,13 @@
       <c r="M14" s="4">
         <v>284</v>
       </c>
+      <c r="N14" s="4">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M14">
-    <sortCondition descending="1" ref="M14"/>
+  <sortState ref="A1:N14">
+    <sortCondition descending="1" ref="N2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1839,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1887,7 +1935,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11">
-        <f>SUM(B2:D2)</f>
+        <f t="shared" ref="F2:F9" si="0">SUM(B2:D2)</f>
         <v>33</v>
       </c>
       <c r="G2" s="12">
@@ -1910,11 +1958,11 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11">
-        <f>SUM(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ref="G3:G14" si="0">F3*2</f>
+        <f t="shared" ref="G3:G14" si="1">F3*2</f>
         <v>66</v>
       </c>
     </row>
@@ -1933,11 +1981,11 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11">
-        <f>SUM(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
@@ -1956,11 +2004,11 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="11">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
@@ -1979,11 +2027,11 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="11">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
@@ -2002,11 +2050,11 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="11">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
@@ -2025,11 +2073,11 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
@@ -2048,11 +2096,11 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11">
-        <f>SUM(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2077,7 +2125,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H10" s="13"/>
@@ -2101,7 +2149,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -2124,7 +2172,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
@@ -2147,7 +2195,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -2170,7 +2218,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>

--- a/public/excel/Rating.xlsx
+++ b/public/excel/Rating.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>TheWaySoFar</t>
   </si>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>Rating13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,11 +659,12 @@
     <col min="4" max="4" width="24.875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" hidden="1" customWidth="1"/>
     <col min="6" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="13" max="13" width="16.375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
@@ -699,8 +707,11 @@
       <c r="N1" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O1" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,8 +754,11 @@
       <c r="N2" s="4">
         <v>1847</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O2" s="4">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,228 +801,246 @@
       <c r="N3" s="4">
         <v>1400</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O3" s="4">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1220</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1192</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1256</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1243</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1315</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1194</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1130</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1162</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1240</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1223</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1216</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>978</v>
+      </c>
+      <c r="C5" s="4">
+        <v>944</v>
+      </c>
+      <c r="D5" s="4">
+        <v>998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>993</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1016</v>
+      </c>
+      <c r="G5" s="4">
+        <v>916</v>
+      </c>
+      <c r="H5" s="4">
+        <v>974</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1018</v>
+      </c>
+      <c r="J5" s="4">
+        <v>992</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1013</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1098</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1141</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1173</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B6" s="5">
         <v>1298</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C6" s="6">
         <v>1221</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D6" s="4">
         <v>1324</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E6" s="4">
         <v>1360</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F6" s="4">
         <v>1339</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G6" s="4">
         <v>1449</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H6" s="4">
         <v>1545</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I6" s="4">
         <v>1520</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J6" s="4">
         <v>1371</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K6" s="4">
         <v>1424</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L6" s="4">
         <v>1379</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M6" s="4">
         <v>1240</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N6" s="4">
         <v>1316</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1220</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1192</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1256</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1243</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1315</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1194</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1130</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="O6" s="4">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1021</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1117</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1071</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1078</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1059</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1067</v>
+      </c>
+      <c r="H7" s="4">
+        <v>959</v>
+      </c>
+      <c r="I7" s="4">
+        <v>965</v>
+      </c>
+      <c r="J7" s="4">
+        <v>906</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1012</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1028</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1062</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1050</v>
+      </c>
+      <c r="O7" s="4">
         <v>1162</v>
       </c>
-      <c r="J5" s="4">
-        <v>1250</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1240</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1250</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1223</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>978</v>
-      </c>
-      <c r="C6" s="4">
-        <v>944</v>
-      </c>
-      <c r="D6" s="4">
-        <v>998</v>
-      </c>
-      <c r="E6" s="4">
-        <v>993</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1016</v>
-      </c>
-      <c r="G6" s="4">
-        <v>916</v>
-      </c>
-      <c r="H6" s="4">
-        <v>974</v>
-      </c>
-      <c r="I6" s="4">
+    </row>
+    <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1161</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1004</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1065</v>
+      </c>
+      <c r="E8" s="4">
         <v>1018</v>
       </c>
-      <c r="J6" s="4">
-        <v>992</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1013</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="F8" s="4">
+        <v>1057</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1111</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1104</v>
+      </c>
+      <c r="I8" s="4">
         <v>1098</v>
       </c>
-      <c r="M6" s="4">
-        <v>1141</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1161</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1004</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1065</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1018</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1057</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1111</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1104</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1098</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J8" s="4">
         <v>1138</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="4">
         <v>1108</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="4">
         <v>1086</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="4">
         <v>1157</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="4">
         <v>1105</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1021</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1117</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1071</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1078</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1059</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1067</v>
-      </c>
-      <c r="H8" s="4">
-        <v>959</v>
-      </c>
-      <c r="I8" s="4">
-        <v>965</v>
-      </c>
-      <c r="J8" s="4">
-        <v>906</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1012</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1028</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1062</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O8" s="4">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1051,96 +1083,105 @@
       <c r="N9" s="4">
         <v>947</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O9" s="4">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>838</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1033</v>
+      </c>
+      <c r="D10" s="4">
+        <v>904</v>
+      </c>
+      <c r="E10" s="4">
+        <v>827</v>
+      </c>
+      <c r="F10" s="4">
+        <v>825</v>
+      </c>
+      <c r="G10" s="4">
+        <v>798</v>
+      </c>
+      <c r="H10" s="4">
+        <v>843</v>
+      </c>
+      <c r="I10" s="4">
+        <v>834</v>
+      </c>
+      <c r="J10" s="4">
+        <v>866</v>
+      </c>
+      <c r="K10" s="4">
+        <v>952</v>
+      </c>
+      <c r="L10" s="4">
+        <v>921</v>
+      </c>
+      <c r="M10" s="4">
+        <v>895</v>
+      </c>
+      <c r="N10" s="4">
+        <v>855</v>
+      </c>
+      <c r="O10" s="4">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>1065</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1233</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>1080</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>960</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>871</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>877</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>861</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>800</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="4">
         <v>855</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="4">
         <v>841</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="4">
         <v>809</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M11" s="4">
         <v>825</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N11" s="4">
         <v>880</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>838</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1033</v>
-      </c>
-      <c r="D11" s="4">
-        <v>904</v>
-      </c>
-      <c r="E11" s="4">
-        <v>827</v>
-      </c>
-      <c r="F11" s="4">
-        <v>825</v>
-      </c>
-      <c r="G11" s="4">
-        <v>798</v>
-      </c>
-      <c r="H11" s="4">
-        <v>843</v>
-      </c>
-      <c r="I11" s="4">
-        <v>834</v>
-      </c>
-      <c r="J11" s="4">
-        <v>866</v>
-      </c>
-      <c r="K11" s="4">
-        <v>952</v>
-      </c>
-      <c r="L11" s="4">
-        <v>921</v>
-      </c>
-      <c r="M11" s="4">
-        <v>895</v>
-      </c>
-      <c r="N11" s="4">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O11" s="4">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1224,11 @@
       <c r="N12" s="4">
         <v>492</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O12" s="4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1227,8 +1271,11 @@
       <c r="N13" s="4">
         <v>433</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O13" s="4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1271,10 +1318,13 @@
       <c r="N14" s="4">
         <v>240</v>
       </c>
+      <c r="O14" s="4">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:N14">
-    <sortCondition descending="1" ref="N2"/>
+  <sortState ref="A1:O14">
+    <sortCondition descending="1" ref="O2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1287,7 +1337,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
